--- a/score.xlsx
+++ b/score.xlsx
@@ -51,13 +51,13 @@
     <t>(1,1), (4,6), (2,2), (3,3), (6,7), (5,4), (7,5)</t>
   </si>
   <si>
-    <t>(1,2), (2,5), (3,7), (5,6), (6,4), (7,3), (4,1)</t>
-  </si>
-  <si>
     <t>(1,1), (2,5), (8,9), (3,10), (5,11), (11,8), (10,3), (9,7), (6,4), (7,2), (4,6)</t>
   </si>
   <si>
     <t>(1,3), (2,9), (3,11), (9,10), (11,8), (10,7), (7,6), (8,4), (5,5), (6,2), (4,1)</t>
+  </si>
+  <si>
+    <t>(1,4),(2,2),(4,1),(7,3),(6,6),(5,5),(3,7)</t>
   </si>
 </sst>
 </file>
@@ -65,7 +65,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -175,8 +175,8 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,7 +481,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,10 +553,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="3">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4">
         <v>5.5</v>
@@ -566,11 +566,11 @@
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F26" si="0">B3-D3</f>
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="G3" s="12">
         <f t="shared" ref="G3:G26" si="1">F3/H3</f>
-        <v>0.8571428571428571</v>
+        <v>0.88571428571428568</v>
       </c>
       <c r="H3">
         <v>17.5</v>
@@ -584,13 +584,13 @@
         <v>56</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7">
         <v>29</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
@@ -1053,7 +1053,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="11">
         <f>SUM(G2:G26)</f>
-        <v>2.2428571428571429</v>
+        <v>2.2714285714285714</v>
       </c>
       <c r="H27" s="10"/>
     </row>

--- a/score.xlsx
+++ b/score.xlsx
@@ -621,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>207.5</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -641,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>412.5</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>664</v>
+        <v>689</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -681,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1128</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1849.5</v>
+        <v>1917.5</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3002.5</v>
+        <v>3097.5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4450.5</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6183.5</v>
+        <v>6269.5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>8538.5</v>
+        <v>8580</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>26469.5</v>
+        <v>26514.5</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>135728.5</v>
+        <v>135829.5</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>267012.5</v>
+        <v>268053</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
